--- a/target/classes/秋招投递记录.xlsx
+++ b/target/classes/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
   <si>
     <t>公司名称</t>
   </si>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>笔试冲突/放弃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>9.8 21:00--23:00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -491,10 +487,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -547,7 +539,87 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.10 10:20</t>
+    <t>9.15 11:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9 18:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 22:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 15:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/apply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景智能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.11  13:30:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一轮面试/测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面时间待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约笔试</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +712,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -658,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,12 +776,114 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -775,6 +955,54 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,19 +1020,24 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I48">
-    <sortCondition descending="1" ref="B1:B1048575"/>
+  <sortState ref="A2:I50">
+    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="9"/>
+    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="8"/>
+    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="7"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="F2:F50" dxfId="6"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="8"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="7"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="6"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="5"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
-    <tableColumn id="6" name="笔试" dataDxfId="2"/>
-    <tableColumn id="7" name="面试" dataDxfId="1"/>
-    <tableColumn id="8" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="20"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="19"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="18"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="17"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="16"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="15"/>
+    <tableColumn id="6" name="笔试" dataDxfId="14"/>
+    <tableColumn id="7" name="面试" dataDxfId="13"/>
+    <tableColumn id="8" name="备注" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1097,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1147,84 +1380,97 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="F2" s="11"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="10" t="s">
-        <v>140</v>
-      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3">
-        <v>44446</v>
+        <v>44442</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3">
-        <v>44446</v>
+        <v>44442</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>141</v>
+        <v>111</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3">
-        <v>44446</v>
+        <v>44450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3">
         <v>44445</v>
@@ -1233,148 +1479,187 @@
         <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>44445</v>
+        <v>44440</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
-        <v>44445</v>
+        <v>44440</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
-        <v>44442</v>
+        <v>44437</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
-        <v>44442</v>
+        <v>44432</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3">
-        <v>44442</v>
+        <v>44432</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>99</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1396,7 +1681,7 @@
       <c r="F14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I14" s="10" t="s">
@@ -1405,407 +1690,395 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3">
-        <v>44442</v>
+        <v>44436</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3">
-        <v>44442</v>
+        <v>44446</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="I17" s="10" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>44442</v>
+        <v>44438</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>113</v>
+        <v>30</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
-        <v>44440</v>
+        <v>44437</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>122</v>
+        <v>34</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3">
-        <v>44440</v>
+        <v>44450</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>114</v>
+        <v>159</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="B21" s="3">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="B22" s="3">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3">
-        <v>44438</v>
+        <v>44442</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B26" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>360</v>
+      <c r="A27" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B27" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="B29" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>44</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3">
-        <v>44436</v>
+        <v>44442</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3">
-        <v>44432</v>
+        <v>44440</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3">
-        <v>44432</v>
+        <v>44438</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="6"/>
+        <v>26</v>
+      </c>
       <c r="I32" s="10" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
@@ -1813,66 +2086,54 @@
       <c r="E33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="8">
-        <v>44432</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="A34" s="2">
+        <v>360</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44437</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="I35" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3">
         <v>44431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
@@ -1880,22 +2141,17 @@
       <c r="E36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B37" s="3">
         <v>44431</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>59</v>
@@ -1907,168 +2163,171 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B38" s="3">
         <v>44431</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="3">
         <v>44431</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="E39" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3">
         <v>44431</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3">
         <v>44431</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3">
         <v>44431</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="8">
+        <v>44446</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="8">
+        <v>44437</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="3">
-        <v>44431</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="8">
+        <v>44432</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="F45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B46" s="8">
         <v>44431</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>68</v>
@@ -2079,13 +2338,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B47" s="8">
         <v>44431</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>59</v>
@@ -2102,19 +2361,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B48" s="8">
         <v>44431</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>68</v>
@@ -2123,28 +2382,75 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I32" r:id="rId1"/>
-    <hyperlink ref="I30" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I29" r:id="rId3"/>
-    <hyperlink ref="I23" r:id="rId4"/>
-    <hyperlink ref="I24" r:id="rId5"/>
-    <hyperlink ref="I21" r:id="rId6"/>
-    <hyperlink ref="I9" r:id="rId7"/>
-    <hyperlink ref="I12" r:id="rId8"/>
-    <hyperlink ref="I13" r:id="rId9"/>
+    <hyperlink ref="I35" r:id="rId1"/>
+    <hyperlink ref="I15" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I10" r:id="rId3"/>
+    <hyperlink ref="I32" r:id="rId4"/>
+    <hyperlink ref="I18" r:id="rId5"/>
+    <hyperlink ref="I9" r:id="rId6"/>
+    <hyperlink ref="I24" r:id="rId7"/>
+    <hyperlink ref="I27" r:id="rId8"/>
+    <hyperlink ref="I28" r:id="rId9"/>
     <hyperlink ref="I14" r:id="rId10"/>
-    <hyperlink ref="I17" r:id="rId11" location="/progress"/>
-    <hyperlink ref="I18" r:id="rId12"/>
-    <hyperlink ref="I2" r:id="rId13" location="/individualCenter"/>
-    <hyperlink ref="I5" r:id="rId14"/>
+    <hyperlink ref="I3" r:id="rId11" location="/progress"/>
+    <hyperlink ref="I4" r:id="rId12"/>
+    <hyperlink ref="I21" r:id="rId13" location="/individualCenter"/>
+    <hyperlink ref="I17" r:id="rId14"/>
+    <hyperlink ref="I20" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>

--- a/target/classes/秋招投递记录.xlsx
+++ b/target/classes/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="209">
   <si>
     <t>公司名称</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>秋招研发工程师及</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>中兴通讯</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -351,10 +347,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.zte.com.cn/ZTE.Graduate.Web/CenterPage/Index.aspx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>深信服</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -387,207 +379,355 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>9.8 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 15:00--16:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27 20:00--22:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 17:00--18:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 18:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7 18:00--20:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩鲸科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南/南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 21:00--23:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软软件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅文集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hundsun.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9 18:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 22:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 15:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/apply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景智能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面时间待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 11:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷家乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼多多</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>测评</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.8 19:00--20:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 15:00--16:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.27 20:00--22:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.29 17:00--18:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1 18:00--23:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.7 18:00--20:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.9 15:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.15 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>浩鲸科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南/南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>携程集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪儿网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.8 21:00--23:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java研发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆软软件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅文集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒生科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hundsun.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.15 11:40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.9 18:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10 22:00--23:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.14 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10 15:20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.midea.com/schoolOut/apply</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>远景智能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
+    <t>9.18 10:45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 16:15</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -595,7 +735,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.11  13:30:00</t>
+    <t>9.15 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer 12.5K/27.6k</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -603,23 +759,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>9.14 14:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一轮面试/测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二面时间待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约笔试</t>
+    <t>9.17 9:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.17 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +775,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,8 +816,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +873,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -736,7 +897,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,10 +937,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,7 +957,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -799,6 +969,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -847,6 +1025,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFFABF8F"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
@@ -960,6 +1146,14 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1020,24 +1214,25 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
   <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I50">
-    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="11"/>
-    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="10"/>
-    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="9"/>
-    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="8"/>
-    <sortCondition sortBy="cellColor" ref="F2:F50" dxfId="7"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="F2:F50" dxfId="6"/>
+  <sortState ref="A2:I62">
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="13"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="12"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="10"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="9"/>
+    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="8"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="F2:F62" dxfId="7"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="20"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="19"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="18"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="17"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="16"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="15"/>
-    <tableColumn id="6" name="笔试" dataDxfId="14"/>
-    <tableColumn id="7" name="面试" dataDxfId="13"/>
-    <tableColumn id="8" name="备注" dataDxfId="12"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="22"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="21"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="20"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="19"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="18"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="17"/>
+    <tableColumn id="6" name="笔试" dataDxfId="16"/>
+    <tableColumn id="7" name="面试" dataDxfId="15"/>
+    <tableColumn id="8" name="备注" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1330,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1380,51 +1575,53 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3">
         <v>44445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="11"/>
+        <v>125</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3">
         <v>44442</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3">
         <v>44442</v>
@@ -1436,59 +1633,59 @@
         <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B5" s="3">
         <v>44450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>164</v>
+        <v>154</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3">
         <v>44445</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>154</v>
+      <c r="G6" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1509,74 +1706,74 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>122</v>
+      <c r="F7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="B8" s="3">
-        <v>44440</v>
+        <v>44446</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>114</v>
+        <v>178</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="B9" s="3">
-        <v>44440</v>
+        <v>44450</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
-        <v>44437</v>
+        <v>44440</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -1585,137 +1782,134 @@
         <v>50</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>44432</v>
+        <v>44440</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
-        <v>44432</v>
+        <v>44437</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>116</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>104</v>
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
-        <v>44436</v>
+        <v>44432</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1734,406 +1928,427 @@
         <v>60</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3">
-        <v>44446</v>
+        <v>44442</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>150</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3">
-        <v>44438</v>
+        <v>44436</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>166</v>
+        <v>46</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>167</v>
+        <v>112</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>169</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B20" s="3">
-        <v>44450</v>
+        <v>44446</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>44446</v>
+        <v>44437</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>138</v>
+        <v>34</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>44446</v>
+        <v>44438</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>30</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B23" s="3">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3">
-        <v>44442</v>
+        <v>44445</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B25" s="3">
         <v>44442</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>44442</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="3">
         <v>44442</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3">
         <v>44442</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3">
         <v>44442</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>44440</v>
+        <v>44438</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
+      <c r="A33" s="2">
+        <v>360</v>
       </c>
       <c r="B33" s="3">
         <v>44437</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>360</v>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B34" s="3">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F34" s="6"/>
+      <c r="I34" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="I35" s="10" t="s">
-        <v>53</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3">
         <v>44431</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>59</v>
@@ -2145,48 +2360,47 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
         <v>44431</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="7"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3">
         <v>44431</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3">
         <v>44431</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>59</v>
@@ -2197,260 +2411,398 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3">
         <v>44431</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3">
-        <v>44431</v>
+        <v>44451</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="B42" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="3">
         <v>44431</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44442</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="8">
+        <v>44446</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="8">
+        <v>44437</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="8">
+        <v>44432</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="8">
+        <v>44431</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="8">
-        <v>44446</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="8">
-        <v>44432</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="8">
-        <v>44431</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I35" r:id="rId1"/>
-    <hyperlink ref="I15" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I10" r:id="rId3"/>
-    <hyperlink ref="I32" r:id="rId4"/>
-    <hyperlink ref="I18" r:id="rId5"/>
-    <hyperlink ref="I9" r:id="rId6"/>
-    <hyperlink ref="I24" r:id="rId7"/>
-    <hyperlink ref="I27" r:id="rId8"/>
-    <hyperlink ref="I28" r:id="rId9"/>
-    <hyperlink ref="I14" r:id="rId10"/>
-    <hyperlink ref="I3" r:id="rId11" location="/progress"/>
-    <hyperlink ref="I4" r:id="rId12"/>
-    <hyperlink ref="I21" r:id="rId13" location="/individualCenter"/>
-    <hyperlink ref="I17" r:id="rId14"/>
-    <hyperlink ref="I20" r:id="rId15"/>
+    <hyperlink ref="I34" r:id="rId1"/>
+    <hyperlink ref="I18" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
+    <hyperlink ref="I12" r:id="rId3"/>
+    <hyperlink ref="I31" r:id="rId4"/>
+    <hyperlink ref="I22" r:id="rId5"/>
+    <hyperlink ref="I11" r:id="rId6"/>
+    <hyperlink ref="I25" r:id="rId7"/>
+    <hyperlink ref="I28" r:id="rId8"/>
+    <hyperlink ref="I29" r:id="rId9"/>
+    <hyperlink ref="I3" r:id="rId10" location="/progress"/>
+    <hyperlink ref="I4" r:id="rId11"/>
+    <hyperlink ref="I8" r:id="rId12" location="/individualCenter"/>
+    <hyperlink ref="I20" r:id="rId13"/>
+    <hyperlink ref="I5" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>

--- a/target/classes/秋招投递记录.xlsx
+++ b/target/classes/秋招投递记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="266">
   <si>
     <t>公司名称</t>
   </si>
@@ -123,651 +123,881 @@
     <t>北京</t>
   </si>
   <si>
+    <t>天眼查集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+  </si>
+  <si>
+    <t>服务端开发工程师-Java</t>
+  </si>
+  <si>
+    <t>4399游戏</t>
+  </si>
+  <si>
+    <t>牛客/官网</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>荣耀honor</t>
+  </si>
+  <si>
+    <t>软件开发工程师-互联网软件</t>
+  </si>
+  <si>
+    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account</t>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>微众银行</t>
+  </si>
+  <si>
+    <t>武汉</t>
+  </si>
+  <si>
+    <t>完成笔试</t>
+  </si>
+  <si>
+    <t>VIVO</t>
+  </si>
+  <si>
+    <t>Java工程师（IT应用方向）</t>
+  </si>
+  <si>
+    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex</t>
+  </si>
+  <si>
+    <t>度小满科技</t>
+  </si>
+  <si>
+    <t>Java研发工程师-技术体系</t>
+  </si>
+  <si>
+    <t>9.5 下午 15:00--16:30</t>
+  </si>
+  <si>
+    <t>奇安信</t>
+  </si>
+  <si>
+    <t>中原银行</t>
+  </si>
+  <si>
+    <t>牛客网</t>
+  </si>
+  <si>
+    <t>郑州</t>
+  </si>
+  <si>
+    <t>8.28 10:00--22:00 之间</t>
+  </si>
+  <si>
+    <t>老虎集团</t>
+  </si>
+  <si>
+    <t>Java开发工程师(Esop)</t>
+  </si>
+  <si>
+    <t>阳关保险</t>
+  </si>
+  <si>
+    <t>阿里巴巴灵犀互娱</t>
+  </si>
+  <si>
+    <t>研发工程师Java</t>
+  </si>
+  <si>
+    <t>顺网科技</t>
+  </si>
+  <si>
+    <t>终止</t>
+  </si>
+  <si>
+    <t>招商局金融科技</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>华人华通</t>
+  </si>
+  <si>
+    <t>云平台软件助理工程师</t>
+  </si>
+  <si>
+    <t>米哈游</t>
+  </si>
+  <si>
+    <t>Java工程师</t>
+  </si>
+  <si>
+    <t>EA China</t>
+  </si>
+  <si>
+    <t>麦吉太文</t>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+  </si>
+  <si>
+    <t>北京爱笔科技有限公司</t>
+  </si>
+  <si>
+    <t>智己汽车</t>
+  </si>
+  <si>
+    <t>Java开发方向</t>
+  </si>
+  <si>
+    <t>广发证卷</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iotchinamobile.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷网络</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发岗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEIN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java软件开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inspur.hcmcloud.cn/recruit#/progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hisense.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6 15:00--16:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27 20:00--22:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29 17:00--18:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1 18:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7 18:00--20:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩鲸科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南/南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8 21:00--23:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软软件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅文集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hundsun.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9 18:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10 22:00--23:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.midea.com/schoolOut/apply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景智能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成测评</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 11:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.12 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术开发类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷家乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货拉拉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18 10:45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14 16:15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15 19:00--20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招研发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer 12.5K/27.6k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.17 9:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.17 14:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试冲突/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer 18.5k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试/终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>预约笔试</t>
-  </si>
-  <si>
-    <t>天眼查集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.22 19:00--20:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.18 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Java开发工程师</t>
-  </si>
-  <si>
-    <t>服务端开发工程师-Java</t>
-  </si>
-  <si>
-    <t>4399游戏</t>
-  </si>
-  <si>
-    <t>牛客/官网</t>
-  </si>
-  <si>
-    <t>广州</t>
-  </si>
-  <si>
-    <t>荣耀honor</t>
-  </si>
-  <si>
-    <t>软件开发工程师-互联网软件</t>
-  </si>
-  <si>
-    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/account</t>
-  </si>
-  <si>
-    <t>招银网络科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>杭州</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师-多业务中台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>满帮集团</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣链科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moka</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>端点网络科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛客</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>有赞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国重汽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>it信息工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山大地纬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海银行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总行信息技术岗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51job</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>信雅达科技</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.22 15:00--16:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.20 14:00--16:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.25 14:00--16:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1 之前完成即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚信安全</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科创达</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.23 19:00--21:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.25 15:00 之前完成即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.25 14:00 之前完成即可</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26 19:00--20:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.23 10:10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一轮面试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26 18:20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.26 9:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.25 16:00--18:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.28 18:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成笔试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.28 14:00--16:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端软件工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotjob</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试后测评(完成)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.27 16:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.27 20:30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.29 9:40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
-  </si>
-  <si>
-    <t>微众银行</t>
-  </si>
-  <si>
-    <t>武汉</t>
-  </si>
-  <si>
-    <t>完成笔试</t>
-  </si>
-  <si>
-    <t>VIVO</t>
-  </si>
-  <si>
-    <t>Java工程师（IT应用方向）</t>
-  </si>
-  <si>
-    <t>https://hr.vivo.com/wt/vivo/web/index/CompvivoIndex</t>
-  </si>
-  <si>
-    <t>度小满科技</t>
-  </si>
-  <si>
-    <t>Java研发工程师-技术体系</t>
-  </si>
-  <si>
-    <t>9.5 下午 15:00--16:30</t>
-  </si>
-  <si>
-    <t>奇安信</t>
-  </si>
-  <si>
-    <t>中原银行</t>
-  </si>
-  <si>
-    <t>牛客网</t>
-  </si>
-  <si>
-    <t>郑州</t>
-  </si>
-  <si>
-    <t>8.28 10:00--22:00 之间</t>
-  </si>
-  <si>
-    <t>老虎集团</t>
-  </si>
-  <si>
-    <t>Java开发工程师(Esop)</t>
-  </si>
-  <si>
-    <t>阳关保险</t>
-  </si>
-  <si>
-    <t>阿里巴巴灵犀互娱</t>
-  </si>
-  <si>
-    <t>研发工程师Java</t>
-  </si>
-  <si>
-    <t>顺网科技</t>
-  </si>
-  <si>
-    <t>终止</t>
-  </si>
-  <si>
-    <t>招商局金融科技</t>
-  </si>
-  <si>
-    <t>Soul</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>华人华通</t>
-  </si>
-  <si>
-    <t>云平台软件助理工程师</t>
-  </si>
-  <si>
-    <t>米哈游</t>
-  </si>
-  <si>
-    <t>Java工程师</t>
-  </si>
-  <si>
-    <t>EA China</t>
-  </si>
-  <si>
-    <t>麦吉太文</t>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-  </si>
-  <si>
-    <t>北京爱笔科技有限公司</t>
-  </si>
-  <si>
-    <t>智己汽车</t>
-  </si>
-  <si>
-    <t>Java开发方向</t>
-  </si>
-  <si>
-    <t>广发证卷</t>
-  </si>
-  <si>
-    <t>中国移动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://iotchinamobile.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>锐捷网络</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发岗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHEIN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>趋势科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java软件开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://trendmicro.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.163.com/app/personal/apply</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿盟科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深信服</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://inspur.hcmcloud.cn/recruit#/progress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>海信</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hisense.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.8 19:00--20:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.6 15:00--16:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.27 20:00--22:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.29 17:00--18:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1 18:00--23:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.7 18:00--20:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.15 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>浩鲸科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>济南/南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>携程集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>去哪儿网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.8 21:00--23:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java研发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.baidu.com/external/baidu/campus.html#/individualCenter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>帆软软件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信公众号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅文集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒生科技</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hundsun.zhiye.com/Portal/Apply/Index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.9 18:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10 22:00--23:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.14 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.10 15:20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.midea.com/schoolOut/apply</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>远景智能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二面时间待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.13 11:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.12 14:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银联</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术开发类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全国</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鹏汽车</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>酷家乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moka</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.14 19:00--21:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试冲突/终止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>烽火通信</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件研发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>南京</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>同花顺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙湖集团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼多多</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛客网</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>快手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>货拉拉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测评</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.18 10:45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成笔试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.14 16:15</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.13 19:00--20:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.15 19:00--20:30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成笔试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>秋招研发工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成笔试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offer 12.5K/27.6k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二轮面试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.17 9:40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.17 14:00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试冲突/终止</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +1005,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,8 +1053,18 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,12 +1080,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +1131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,19 +1150,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -937,19 +1168,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,119 +1197,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b/>
@@ -1212,27 +1340,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048575" totalsRowShown="0">
-  <autoFilter ref="A1:I1048575"/>
-  <sortState ref="A2:I62">
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="13"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="12"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="11"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="10"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="9"/>
-    <sortCondition sortBy="cellColor" ref="F2:F62" dxfId="8"/>
-    <sortCondition descending="1" sortBy="cellColor" ref="F2:F62" dxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:I1048566" totalsRowShown="0">
+  <autoFilter ref="A1:I1048566"/>
+  <sortState ref="A2:I70">
+    <sortCondition sortBy="cellColor" ref="F2:F70" dxfId="15"/>
+    <sortCondition sortBy="cellColor" ref="F2:F70" dxfId="14"/>
+    <sortCondition sortBy="cellColor" ref="F2:F70" dxfId="13"/>
+    <sortCondition sortBy="cellColor" ref="F2:F70" dxfId="12"/>
+    <sortCondition sortBy="cellColor" ref="F2:F70" dxfId="11"/>
+    <sortCondition sortBy="cellColor" ref="F2:F70" dxfId="10"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="F2:F70" dxfId="9"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="公司名称" dataDxfId="22"/>
-    <tableColumn id="2" name="投递时间" dataDxfId="21"/>
-    <tableColumn id="3" name="投递岗位" dataDxfId="20"/>
-    <tableColumn id="10" name="投递渠道" dataDxfId="19"/>
-    <tableColumn id="4" name="工作地点" dataDxfId="18"/>
-    <tableColumn id="9" name="当前进度" dataDxfId="17"/>
-    <tableColumn id="6" name="笔试" dataDxfId="16"/>
-    <tableColumn id="7" name="面试" dataDxfId="15"/>
-    <tableColumn id="8" name="备注" dataDxfId="14"/>
+    <tableColumn id="1" name="公司名称" dataDxfId="8"/>
+    <tableColumn id="2" name="投递时间" dataDxfId="7"/>
+    <tableColumn id="3" name="投递岗位" dataDxfId="6"/>
+    <tableColumn id="10" name="投递渠道" dataDxfId="5"/>
+    <tableColumn id="4" name="工作地点" dataDxfId="4"/>
+    <tableColumn id="9" name="当前进度" dataDxfId="3"/>
+    <tableColumn id="6" name="笔试" dataDxfId="2"/>
+    <tableColumn id="7" name="面试" dataDxfId="1"/>
+    <tableColumn id="8" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1525,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1575,22 +1703,22 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3">
         <v>44445</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>161</v>
+        <v>122</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1598,803 +1726,866 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="3">
         <v>44442</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="10" t="s">
         <v>107</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3">
-        <v>44442</v>
+        <v>44457</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>110</v>
+        <v>223</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3">
         <v>44450</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3">
-        <v>44445</v>
+        <v>44456</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>149</v>
+        <v>211</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <v>44440</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="B8" s="3">
-        <v>44446</v>
+        <v>44456</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3">
-        <v>44450</v>
+        <v>44442</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>199</v>
+        <v>235</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="B10" s="3">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="B11" s="3">
-        <v>44440</v>
+        <v>44456</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3">
-        <v>44437</v>
+        <v>44442</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>44</v>
+        <v>203</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3">
-        <v>44432</v>
+        <v>44445</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3">
-        <v>44431</v>
+        <v>44446</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>114</v>
+        <v>172</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="B15" s="3">
-        <v>44432</v>
+        <v>44450</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>117</v>
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>195</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>44431</v>
+        <v>44440</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3">
-        <v>44436</v>
+        <v>44432</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>205</v>
+        <v>47</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>143</v>
+      <c r="A20" s="2">
+        <v>360</v>
       </c>
       <c r="B20" s="3">
-        <v>44446</v>
+        <v>44437</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>163</v>
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>159</v>
+        <v>16</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>160</v>
+        <v>231</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="B22" s="3">
-        <v>44438</v>
+        <v>44451</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>250</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="B23" s="3">
-        <v>44446</v>
+        <v>44457</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>135</v>
+        <v>223</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B24" s="3">
-        <v>44445</v>
+        <v>44442</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>122</v>
+        <v>104</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>44442</v>
+        <v>44437</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>86</v>
+        <v>16</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>44442</v>
+        <v>44440</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3">
-        <v>44442</v>
+        <v>44431</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3">
         <v>44442</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3">
-        <v>44442</v>
+        <v>44436</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="10" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3">
-        <v>44440</v>
+        <v>44437</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="B31" s="3">
-        <v>44438</v>
+        <v>44446</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>27</v>
+        <v>142</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>360</v>
+      <c r="A33" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B33" s="3">
-        <v>44437</v>
+        <v>44446</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B34" s="3">
-        <v>44432</v>
+        <v>44445</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="I34" s="10" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B35" s="3">
-        <v>44431</v>
+        <v>44442</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="7"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B36" s="3">
-        <v>44431</v>
+        <v>44442</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="7"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3">
-        <v>44431</v>
+        <v>44438</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>44431</v>
+        <v>44437</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3">
         <v>44431</v>
@@ -2403,24 +2594,24 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3">
         <v>44431</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>34</v>
@@ -2428,308 +2619,388 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="B41" s="3">
-        <v>44451</v>
+        <v>44431</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I41" s="10"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="B42" s="3">
-        <v>44451</v>
+        <v>44431</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3">
-        <v>44451</v>
+        <v>44431</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B44" s="3">
         <v>44451</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44451</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B48" s="3">
         <v>44451</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>190</v>
+        <v>212</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>191</v>
+        <v>218</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>192</v>
+        <v>220</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44457</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="B53" s="3">
-        <v>44431</v>
+        <v>44457</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="B54" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44465</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="3">
         <v>44442</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="8">
-        <v>44446</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="8">
-        <v>44437</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="8">
-        <v>44432</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G57" s="1"/>
+      <c r="C57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="8">
-        <v>44431</v>
+        <v>52</v>
+      </c>
+      <c r="B58" s="6">
+        <v>44432</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>183</v>
+      </c>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="8">
-        <v>44431</v>
+        <v>98</v>
+      </c>
+      <c r="B59" s="6">
+        <v>44442</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="8">
+        <v>70</v>
+      </c>
+      <c r="B60" s="6">
         <v>44431</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2737,66 +3008,250 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="8">
+        <v>67</v>
+      </c>
+      <c r="B61" s="6">
         <v>44431</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="8">
-        <v>44431</v>
+        <v>101</v>
+      </c>
+      <c r="B62" s="6">
+        <v>44442</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="6">
+        <v>44446</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="6">
+        <v>44437</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" s="6">
+        <v>44432</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="6">
+        <v>44431</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I34" r:id="rId1"/>
-    <hyperlink ref="I18" r:id="rId2" tooltip="https://cmbntjob.cmbchina.com/pages/mycenter/default.html"/>
-    <hyperlink ref="I12" r:id="rId3"/>
-    <hyperlink ref="I31" r:id="rId4"/>
-    <hyperlink ref="I22" r:id="rId5"/>
-    <hyperlink ref="I11" r:id="rId6"/>
-    <hyperlink ref="I25" r:id="rId7"/>
-    <hyperlink ref="I28" r:id="rId8"/>
-    <hyperlink ref="I29" r:id="rId9"/>
-    <hyperlink ref="I3" r:id="rId10" location="/progress"/>
-    <hyperlink ref="I4" r:id="rId11"/>
-    <hyperlink ref="I8" r:id="rId12" location="/individualCenter"/>
-    <hyperlink ref="I20" r:id="rId13"/>
+    <hyperlink ref="I21" r:id="rId1"/>
+    <hyperlink ref="I29" r:id="rId2"/>
+    <hyperlink ref="I25" r:id="rId3"/>
+    <hyperlink ref="I37" r:id="rId4"/>
+    <hyperlink ref="I32" r:id="rId5"/>
+    <hyperlink ref="I17" r:id="rId6"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="I57" r:id="rId8"/>
+    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="I24" r:id="rId10" location="/progress"/>
+    <hyperlink ref="I3" r:id="rId11"/>
+    <hyperlink ref="I14" r:id="rId12" location="/individualCenter"/>
+    <hyperlink ref="I31" r:id="rId13"/>
     <hyperlink ref="I5" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
